--- a/The square root of all evil; The role of market power in fiscal consolidations/sPF.xlsx
+++ b/The square root of all evil; The role of market power in fiscal consolidations/sPF.xlsx
@@ -127,7 +127,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.028676618211345296</v>
+        <v>0.01822820152182536</v>
       </c>
     </row>
     <row r="3">
@@ -135,7 +135,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.029933871687941076</v>
+        <v>0.07320300963572723</v>
       </c>
     </row>
     <row r="4">
@@ -143,7 +143,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02991571960179958</v>
+        <v>0.07346067757835506</v>
       </c>
     </row>
     <row r="5">
@@ -151,7 +151,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03239905750080547</v>
+        <v>0.06675890158693343</v>
       </c>
     </row>
     <row r="6">
@@ -159,7 +159,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03904014634989093</v>
+        <v>0.09049286844654203</v>
       </c>
     </row>
     <row r="7">
@@ -167,7 +167,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.048843118463101604</v>
+        <v>0.10587286355870718</v>
       </c>
     </row>
     <row r="8">
@@ -175,7 +175,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05835426939482022</v>
+        <v>0.08955892766345241</v>
       </c>
     </row>
     <row r="9">
@@ -183,7 +183,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06240664929498555</v>
+        <v>0.09629800227435958</v>
       </c>
     </row>
     <row r="10">
@@ -191,7 +191,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05817557495341669</v>
+        <v>0.07676787723664802</v>
       </c>
     </row>
     <row r="11">
@@ -199,7 +199,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04694712799079857</v>
+        <v>0.04076677357832015</v>
       </c>
     </row>
     <row r="12">
@@ -207,7 +207,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.03321331223344607</v>
+        <v>0.021009845880650024</v>
       </c>
     </row>
     <row r="13">
@@ -215,7 +215,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.021717415473546314</v>
+        <v>0.029400240798912236</v>
       </c>
     </row>
     <row r="14">
@@ -223,7 +223,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.015502511871305783</v>
+        <v>0.007332373605945186</v>
       </c>
     </row>
     <row r="15">
@@ -231,7 +231,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.013766330868333631</v>
+        <v>-0.017649196813670498</v>
       </c>
     </row>
     <row r="16">
@@ -239,7 +239,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01242537732110037</v>
+        <v>-0.014912407683027817</v>
       </c>
     </row>
     <row r="17">
@@ -247,7 +247,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.006027841014618725</v>
+        <v>-0.007662800298920969</v>
       </c>
     </row>
     <row r="18">
@@ -255,7 +255,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.00852526862312301</v>
+        <v>-0.02691044084315175</v>
       </c>
     </row>
   </sheetData>
